--- a/docs/data json format/CheatSheet.xlsx
+++ b/docs/data json format/CheatSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StyleM\Documents\GitHub\Career-Orientation-App\docs\data json format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B962664C-AEF3-413B-8D3D-C4005567FF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2825A3-7E0A-448B-BF13-E63C676ED775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="-11640" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t xml:space="preserve">Εξάμηνο 1 </t>
   </si>
@@ -45,24 +45,6 @@
     <t>Επαναληπτικό 2</t>
   </si>
   <si>
-    <t>Εξάμηνο 5</t>
-  </si>
-  <si>
-    <t>Εξάμηνο 6</t>
-  </si>
-  <si>
-    <t>Επαναληπτικό 3</t>
-  </si>
-  <si>
-    <t>Εξάμηνο 7</t>
-  </si>
-  <si>
-    <t>Εξάμηνο 8</t>
-  </si>
-  <si>
-    <t>Επαναληπτικό 4</t>
-  </si>
-  <si>
     <t>Κατευθύνσεις (Tracks)</t>
   </si>
   <si>
@@ -145,13 +127,91 @@
   </si>
   <si>
     <t>Σχεδιαστής Διεπαφών και εμπειρίας χρήστη</t>
+  </si>
+  <si>
+    <t>Τύποι Ερωτήσεων</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Σωστού / Λάθος</t>
+  </si>
+  <si>
+    <t>TrueFalse</t>
+  </si>
+  <si>
+    <t>Πολλαπλής Επιλογής</t>
+  </si>
+  <si>
+    <t>MultipleChoice</t>
+  </si>
+  <si>
+    <t>Προτιμήσεων</t>
+  </si>
+  <si>
+    <t>LikertScale</t>
+  </si>
+  <si>
+    <t>Εξάμηνο 5 - ΤΛΕΣ</t>
+  </si>
+  <si>
+    <t>Εξάμηνο 6 - ΤΛΕΣ</t>
+  </si>
+  <si>
+    <t>Επαναληπτικό 3 - ΤΛΕΣ</t>
+  </si>
+  <si>
+    <t>Εξάμηνο 5 - ΔΥΣ</t>
+  </si>
+  <si>
+    <t>Εξάμηνο 6 - ΔΥΣ</t>
+  </si>
+  <si>
+    <t>Επαναληπτικό 3 - ΔΥΣ</t>
+  </si>
+  <si>
+    <t>Εξάμηνο 5 - ΠΣΥ</t>
+  </si>
+  <si>
+    <t>Εξάμηνο 6 - ΠΣΥ</t>
+  </si>
+  <si>
+    <t>Επαναληπτικό 3 - ΠΣΥ</t>
+  </si>
+  <si>
+    <t>Εξάμηνο 7 - ΤΛΕΣ</t>
+  </si>
+  <si>
+    <t>Εξάμηνο 8 - ΤΛΕΣ</t>
+  </si>
+  <si>
+    <t>Επαναληπτικό 4 - ΤΛΕΣ</t>
+  </si>
+  <si>
+    <t>Εξάμηνο 7 - ΔΥΣ</t>
+  </si>
+  <si>
+    <t>Εξάμηνο 8 - ΔΥΣ</t>
+  </si>
+  <si>
+    <t>Επαναληπτικό 4 - ΔΥΣ</t>
+  </si>
+  <si>
+    <t>Εξάμηνο 7 - ΠΣΥ</t>
+  </si>
+  <si>
+    <t>Εξάμηνο 8 - ΠΣΥ</t>
+  </si>
+  <si>
+    <t>Επαναληπτικό 4 - ΠΣΥ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +228,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -226,7 +294,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -248,6 +315,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -530,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,66 +610,66 @@
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="33.140625" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>24</v>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="8"/>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
     </row>
@@ -609,29 +677,29 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="B5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1">
         <v>3</v>
       </c>
     </row>
@@ -639,13 +707,20 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="D6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1">
         <v>4</v>
       </c>
     </row>
@@ -653,13 +728,19 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1">
         <v>5</v>
       </c>
     </row>
@@ -667,158 +748,274 @@
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="8"/>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="B9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1">
         <v>9</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="G13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2">
-        <v>10</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="8"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1">
         <v>11</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="2">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1">
         <v>12</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="1">
+        <v>13</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1">
+        <v>14</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="1">
         <v>20</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H18" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
-        <v>2</v>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="1">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/data json format/CheatSheet.xlsx
+++ b/docs/data json format/CheatSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StyleM\Documents\GitHub\Career-Orientation-App\docs\data json format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2825A3-7E0A-448B-BF13-E63C676ED775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C4EFCD-09D5-4E4F-BE0C-C4BF8502BC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="-11640" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t xml:space="preserve">Εξάμηνο 1 </t>
   </si>
@@ -205,6 +205,36 @@
   </si>
   <si>
     <t>Επαναληπτικό 4 - ΠΣΥ</t>
+  </si>
+  <si>
+    <t>Μεταπτυχιακά</t>
+  </si>
+  <si>
+    <t>mastersDegreeId</t>
+  </si>
+  <si>
+    <t>Προηγμένα Συστήματα Πληροφορικής - Ανάπτυξη Λογισμικού και Τεχνητής Νοημοσύνης</t>
+  </si>
+  <si>
+    <t>Ψηφιακός Πολιτισμός, Έξυπνες Πόλεις, IoT και Προηγμένες Ψηφιακές Τεχνολογίες</t>
+  </si>
+  <si>
+    <t>Διοίκηση Επιχειρησιακών Πληροφοριακών Συστημάτων</t>
+  </si>
+  <si>
+    <t>Ψηφιακή Επιχειρηματικότητα</t>
+  </si>
+  <si>
+    <t>Κυβερνοασφάλεια και Επιστήμη Δεδομένων</t>
+  </si>
+  <si>
+    <t>Συστήματα Αυτοματισμού</t>
+  </si>
+  <si>
+    <t>Πληροφοριακά Συστήματα και Δίκτυα</t>
+  </si>
+  <si>
+    <t>Υπολογιστικά Συστήματα και Δίκτυα</t>
   </si>
 </sst>
 </file>
@@ -292,7 +322,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -316,6 +346,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -600,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,8 +640,8 @@
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
     <col min="7" max="7" width="33.140625" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
   </cols>
@@ -867,6 +898,12 @@
       <c r="B15" s="1">
         <v>11</v>
       </c>
+      <c r="D15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G15" s="1" t="s">
         <v>29</v>
       </c>
@@ -874,13 +911,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="1">
         <v>12</v>
       </c>
+      <c r="D16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="9"/>
       <c r="G16" s="1" t="s">
         <v>30</v>
       </c>
@@ -888,9 +929,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
+      <c r="D17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
       <c r="G17" s="1" t="s">
         <v>31</v>
       </c>
@@ -898,13 +945,19 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B18" s="1">
         <v>13</v>
       </c>
+      <c r="D18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
       <c r="G18" s="1" t="s">
         <v>32</v>
       </c>
@@ -912,13 +965,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="1">
         <v>14</v>
       </c>
+      <c r="D19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
       <c r="G19" s="4" t="s">
         <v>33</v>
       </c>
@@ -926,97 +985,155 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B22" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B23" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D26" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D27" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29" s="4"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B30" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D30" s="4"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B31" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D31" s="4"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B32" s="1">
         <v>24</v>
       </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/data json format/CheatSheet.xlsx
+++ b/docs/data json format/CheatSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\StyleM\Documents\GitHub\Career-Orientation-App\docs\data json format\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C4EFCD-09D5-4E4F-BE0C-C4BF8502BC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B097F1F-70DF-4CB2-840B-4BA0759C5C7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
